--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0310/1/template_RP0310.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0310/1/template_RP0310.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TMQ\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0310\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs_project\workspace\TMQ_remote\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0310\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9756E3-B57D-4ABC-A643-5A8698611A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8EB651-5995-4C79-8B9D-BA2C9B8AA39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C423111-B781-429D-B91E-F49592D6BDFB}"/>
+    <workbookView xWindow="28680" yWindow="-9435" windowWidth="29040" windowHeight="15840" xr2:uid="{3C423111-B781-429D-B91E-F49592D6BDFB}"/>
   </bookViews>
   <sheets>
     <sheet name="棚卸準備表" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>棚卸準備日時</t>
   </si>
@@ -378,6 +378,20 @@
     <t>@部門</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>@工場</t>
+    <rPh sb="1" eb="3">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>@予備品倉庫</t>
+    <rPh sb="1" eb="6">
+      <t>ヨビヒンソウコ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -503,7 +517,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,6 +602,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3356,8 +3373,12 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="D1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
